--- a/Assets/Studies/CHI26_Study3_Motion/data_processing/data/p13_data.xlsx
+++ b/Assets/Studies/CHI26_Study3_Motion/data_processing/data/p13_data.xlsx
@@ -4877,6 +4877,9 @@
       <c r="A173">
         <v>13</v>
       </c>
+      <c r="B173">
+        <v>172</v>
+      </c>
       <c r="C173">
         <v>0</v>
       </c>
@@ -4884,6 +4887,15 @@
         <v>1</v>
       </c>
       <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
         <v>1</v>
       </c>
     </row>
@@ -4891,6 +4903,9 @@
       <c r="A174">
         <v>13</v>
       </c>
+      <c r="B174">
+        <v>173</v>
+      </c>
       <c r="C174">
         <v>9</v>
       </c>
@@ -4898,6 +4913,15 @@
         <v>1</v>
       </c>
       <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
         <v>0</v>
       </c>
     </row>
@@ -4905,6 +4929,9 @@
       <c r="A175">
         <v>13</v>
       </c>
+      <c r="B175">
+        <v>174</v>
+      </c>
       <c r="C175">
         <v>0</v>
       </c>
@@ -4913,12 +4940,24 @@
       </c>
       <c r="E175">
         <v>1</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176">
         <v>13</v>
       </c>
+      <c r="B176">
+        <v>175</v>
+      </c>
       <c r="C176">
         <v>9</v>
       </c>
@@ -4928,11 +4967,23 @@
       <c r="E176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>13</v>
       </c>
+      <c r="B177">
+        <v>176</v>
+      </c>
       <c r="C177">
         <v>9</v>
       </c>
@@ -4942,11 +4993,23 @@
       <c r="E177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>13</v>
       </c>
+      <c r="B178">
+        <v>177</v>
+      </c>
       <c r="C178">
         <v>-15</v>
       </c>
@@ -4956,11 +5019,23 @@
       <c r="E178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="F178">
+        <v>-1</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>13</v>
       </c>
+      <c r="B179">
+        <v>178</v>
+      </c>
       <c r="C179">
         <v>9</v>
       </c>
@@ -4970,11 +5045,23 @@
       <c r="E179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>13</v>
       </c>
+      <c r="B180">
+        <v>179</v>
+      </c>
       <c r="C180">
         <v>9</v>
       </c>
@@ -4984,11 +5071,23 @@
       <c r="E180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>13</v>
       </c>
+      <c r="B181">
+        <v>180</v>
+      </c>
       <c r="C181">
         <v>-15</v>
       </c>
@@ -4996,6 +5095,15 @@
         <v>1</v>
       </c>
       <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>-1</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181">
         <v>1</v>
       </c>
     </row>
